--- a/Blind75Checklist.xlsx
+++ b/Blind75Checklist.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">Array</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">Array/String</t>
   </si>
   <si>
     <t xml:space="preserve">S/N</t>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Container With Most Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge String Alternately</t>
   </si>
   <si>
     <t xml:space="preserve">Binary</t>
@@ -193,14 +196,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.17"/>
   </cols>
   <sheetData>
@@ -310,63 +314,74 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="C13" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="A14" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>8</v>
+      <c r="D17" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>19</v>
+      <c r="C18" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
